--- a/Project/Phase 2/Sprint5/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint5/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui_j\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B349F16-7AB8-48DE-A2D4-05BDC1EE4F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE1C12-3BF2-445E-B194-EE1A9C09EBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -315,11 +315,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +401,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +518,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -764,22 +814,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28F5BD-44A0-4916-BB85-680B9BFFA75D}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -787,7 +837,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>1</v>
@@ -797,7 +847,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -813,7 +863,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6">
         <v>1</v>
@@ -830,9 +880,11 @@
       <c r="F4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
@@ -845,9 +897,11 @@
       <c r="F5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
@@ -860,10 +914,10 @@
       <c r="F6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3">
-        <v>2</v>
+      <c r="B7" s="6">
+        <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>16</v>
@@ -877,10 +931,10 @@
       <c r="F7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="3">
-        <v>3</v>
+      <c r="B8" s="6">
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>16</v>
@@ -894,10 +948,10 @@
       <c r="F8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3">
-        <v>4</v>
+      <c r="B9" s="6">
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
@@ -911,10 +965,10 @@
       <c r="F9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
-        <v>5</v>
+      <c r="B10" s="6">
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -927,10 +981,10 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
-        <v>6</v>
+      <c r="B11" s="6">
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
@@ -943,10 +997,10 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
-        <v>7</v>
+      <c r="B12" s="6">
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>17</v>
@@ -959,10 +1013,10 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
-        <v>8</v>
+      <c r="B13" s="6">
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -975,10 +1029,10 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="3">
-        <v>9</v>
+      <c r="B14" s="6">
+        <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>18</v>
@@ -991,10 +1045,10 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="3">
-        <v>10</v>
+      <c r="B15" s="6">
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -1007,10 +1061,10 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="3">
-        <v>11</v>
+      <c r="B16" s="6">
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
@@ -1023,10 +1077,10 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="3">
-        <v>12</v>
+      <c r="B17" s="6">
+        <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>18</v>
@@ -1039,55 +1093,74 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="20">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4">
-        <v>15</v>
-      </c>
+    <row r="20" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
-        <v>16</v>
-      </c>
+    <row r="21" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1124,13 +1197,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1170,13 +1243,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
     </row>
